--- a/private/sijiache/maintenanceinfo.xlsx
+++ b/private/sijiache/maintenanceinfo.xlsx
@@ -393,36 +393,36 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>488元保养,149元还我车内健康清新空气</v>
+        <v>188元保养</v>
       </c>
       <c r="B2" t="str">
-        <v>自行车</v>
+        <v>雪铁龙c4l</v>
       </c>
       <c r="C2" t="str">
-        <v>豫ASSSSS</v>
+        <v>G8x568</v>
       </c>
       <c r="D2" t="str">
-        <v>13322332233</v>
+        <v>13343806816</v>
       </c>
       <c r="E2" t="str">
-        <v>2015-12-1 16:31</v>
+        <v>2015-12-08 17:55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>149元还我车内健康清新空气</v>
+        <v>99.9元还我美丽面庞</v>
       </c>
       <c r="B3" t="str">
-        <v>阿斯顿</v>
+        <v>别克凯越</v>
       </c>
       <c r="C3" t="str">
-        <v>豫ASD131</v>
+        <v>豫A769DW</v>
       </c>
       <c r="D3" t="str">
-        <v>13322332233</v>
+        <v>18624932157</v>
       </c>
       <c r="E3" t="str">
-        <v>2015-11-30 11:33</v>
+        <v>2015-12-08 17:20</v>
       </c>
     </row>
   </sheetData>

--- a/private/sijiache/maintenanceinfo.xlsx
+++ b/private/sijiache/maintenanceinfo.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -393,36 +393,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>188元保养</v>
+        <v>149元还我清新空气</v>
       </c>
       <c r="B2" t="str">
-        <v>雪铁龙c4l</v>
+        <v>65456</v>
       </c>
       <c r="C2" t="str">
-        <v>G8x568</v>
+        <v>78587</v>
       </c>
       <c r="D2" t="str">
-        <v>13343806816</v>
+        <v>15038932411</v>
       </c>
       <c r="E2" t="str">
-        <v>2015-12-08 17:55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>99.9元还我美丽面庞</v>
-      </c>
-      <c r="B3" t="str">
-        <v>别克凯越</v>
-      </c>
-      <c r="C3" t="str">
-        <v>豫A769DW</v>
-      </c>
-      <c r="D3" t="str">
-        <v>18624932157</v>
-      </c>
-      <c r="E3" t="str">
-        <v>2015-12-08 17:20</v>
+        <v>2016-05-05 17:31</v>
       </c>
     </row>
   </sheetData>

--- a/private/sijiache/maintenanceinfo.xlsx
+++ b/private/sijiache/maintenanceinfo.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F38"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -388,24 +388,744 @@
         <v>手机号</v>
       </c>
       <c r="E1" t="str">
+        <v>服务地址</v>
+      </c>
+      <c r="F1" t="str">
         <v>创建时间</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>149元还我清新空气</v>
+        <v>188元 | 保养</v>
       </c>
       <c r="B2" t="str">
-        <v>65456</v>
+        <v>宝来</v>
       </c>
       <c r="C2" t="str">
-        <v>78587</v>
+        <v>豫AH996T</v>
       </c>
       <c r="D2" t="str">
-        <v>15038932411</v>
+        <v>13643835593</v>
       </c>
       <c r="E2" t="str">
-        <v>2016-05-05 17:31</v>
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2017-03-14 12:40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B3" t="str">
+        <v>福特</v>
+      </c>
+      <c r="C3" t="str">
+        <v>豫</v>
+      </c>
+      <c r="D3" t="str">
+        <v>18703973231</v>
+      </c>
+      <c r="E3" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2017-03-14 08:28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B4" t="str">
+        <v>福特</v>
+      </c>
+      <c r="C4" t="str">
+        <v>豫</v>
+      </c>
+      <c r="D4" t="str">
+        <v>187-0397-3231</v>
+      </c>
+      <c r="E4" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2017-03-14 08:26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B5" t="str">
+        <v>福特福克斯</v>
+      </c>
+      <c r="C5" t="str">
+        <v>yu</v>
+      </c>
+      <c r="D5" t="str">
+        <v>18609170322</v>
+      </c>
+      <c r="E5" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2017-03-14 07:44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B6" t="str">
+        <v>宝来</v>
+      </c>
+      <c r="C6" t="str">
+        <v>豫AH996T</v>
+      </c>
+      <c r="D6" t="str">
+        <v>13643835593</v>
+      </c>
+      <c r="E6" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2017-03-13 11:56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B7" t="str">
+        <v>长安逸动</v>
+      </c>
+      <c r="C7" t="str">
+        <v>豫a5gz90</v>
+      </c>
+      <c r="D7" t="str">
+        <v>13838560195</v>
+      </c>
+      <c r="E7" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2017-03-11 18:55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B8" t="str">
+        <v>奔驰ML400</v>
+      </c>
+      <c r="C8" t="str">
+        <v>苏AU18D6</v>
+      </c>
+      <c r="D8" t="str">
+        <v>15515555281</v>
+      </c>
+      <c r="E8" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2017-03-11 08:12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B9" t="str">
+        <v>大众cc1.8t</v>
+      </c>
+      <c r="C9" t="str">
+        <v>豫a218cc</v>
+      </c>
+      <c r="D9" t="str">
+        <v>18539925566</v>
+      </c>
+      <c r="E9" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2017-03-09 15:34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B10" t="str">
+        <v>克莱斯勒300c</v>
+      </c>
+      <c r="C10" t="str">
+        <v>豫A3vc00</v>
+      </c>
+      <c r="D10" t="str">
+        <v>18539925700</v>
+      </c>
+      <c r="E10" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2017-03-09 12:13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B11" t="str">
+        <v>奇瑞QQ6</v>
+      </c>
+      <c r="C11" t="str">
+        <v>豫A0T28P</v>
+      </c>
+      <c r="D11" t="str">
+        <v>13703847088</v>
+      </c>
+      <c r="E11" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2017-03-09 11:11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B12" t="str">
+        <v>新佳乐</v>
+      </c>
+      <c r="C12" t="str">
+        <v>豫A129QN</v>
+      </c>
+      <c r="D12" t="str">
+        <v>13323860690</v>
+      </c>
+      <c r="E12" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2017-03-08 16:22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B13" t="str">
+        <v>天籁</v>
+      </c>
+      <c r="C13" t="str">
+        <v>豫AF55L9</v>
+      </c>
+      <c r="D13" t="str">
+        <v>17503825078</v>
+      </c>
+      <c r="E13" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2017-03-08 12:17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B14" t="str">
+        <v>哈佛H6</v>
+      </c>
+      <c r="C14" t="str">
+        <v>豫AK51R0</v>
+      </c>
+      <c r="D14" t="str">
+        <v>18238454629</v>
+      </c>
+      <c r="E14" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2017-03-08 09:12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B15" t="str">
+        <v>宝马</v>
+      </c>
+      <c r="C15" t="str">
+        <v>969</v>
+      </c>
+      <c r="D15" t="str">
+        <v>18039551345</v>
+      </c>
+      <c r="E15" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2017-03-07 15:58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B16" t="str">
+        <v>大众朗逸</v>
+      </c>
+      <c r="C16" t="str">
+        <v>豫AY25D7</v>
+      </c>
+      <c r="D16" t="str">
+        <v>18530099039</v>
+      </c>
+      <c r="E16" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2017-03-07 13:54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B17" t="str">
+        <v>郑州日产NV200</v>
+      </c>
+      <c r="C17" t="str">
+        <v>豫A Y1A86</v>
+      </c>
+      <c r="D17" t="str">
+        <v>18538159654</v>
+      </c>
+      <c r="E17" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2017-03-07 11:57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B18" t="str">
+        <v>琪达</v>
+      </c>
+      <c r="D18" t="str">
+        <v>18037333398</v>
+      </c>
+      <c r="E18" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2017-03-07 11:12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B19" t="str">
+        <v>雪铁龙c4l</v>
+      </c>
+      <c r="C19" t="str">
+        <v>豫a7gr89</v>
+      </c>
+      <c r="D19" t="str">
+        <v>18638549933</v>
+      </c>
+      <c r="E19" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2017-03-07 09:04</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B20" t="str">
+        <v>福特福睿斯</v>
+      </c>
+      <c r="C20" t="str">
+        <v>豫A.Q37Y1</v>
+      </c>
+      <c r="D20" t="str">
+        <v>15378708131</v>
+      </c>
+      <c r="E20" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2017-03-07 08:09</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B21" t="str">
+        <v>荣威350</v>
+      </c>
+      <c r="C21" t="str">
+        <v>豫A6W59F</v>
+      </c>
+      <c r="D21" t="str">
+        <v>15981920506</v>
+      </c>
+      <c r="E21" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2017-03-07 04:09</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B22" t="str">
+        <v>日产GTR</v>
+      </c>
+      <c r="C22" t="str">
+        <v>豫A6UM90</v>
+      </c>
+      <c r="D22" t="str">
+        <v>15560075556</v>
+      </c>
+      <c r="E22" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2017-03-06 16:51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B23" t="str">
+        <v>宝骏730</v>
+      </c>
+      <c r="C23" t="str">
+        <v>豫AS13U3</v>
+      </c>
+      <c r="D23" t="str">
+        <v>13523435689</v>
+      </c>
+      <c r="E23" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2017-03-06 16:08</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B24" t="str">
+        <v>别克新凯越</v>
+      </c>
+      <c r="C24" t="str">
+        <v>豫A7C68U</v>
+      </c>
+      <c r="D24" t="str">
+        <v>15638164370</v>
+      </c>
+      <c r="E24" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2017-03-06 11:47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B25" t="str">
+        <v>帝豪gs</v>
+      </c>
+      <c r="C25" t="str">
+        <v>豫A23YM6</v>
+      </c>
+      <c r="D25" t="str">
+        <v>18037890171</v>
+      </c>
+      <c r="E25" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2017-03-05 15:27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B26" t="str">
+        <v>丰田rav4</v>
+      </c>
+      <c r="C26" t="str">
+        <v>386</v>
+      </c>
+      <c r="D26" t="str">
+        <v>15003876719</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2017-03-05 13:27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B27" t="str">
+        <v>帕萨特</v>
+      </c>
+      <c r="C27" t="str">
+        <v>豫A0BK33</v>
+      </c>
+      <c r="D27" t="str">
+        <v>15136223398</v>
+      </c>
+      <c r="E27" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2017-03-04 16:58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B28" t="str">
+        <v>奥迪Q3</v>
+      </c>
+      <c r="C28" t="str">
+        <v>豫A87FQ3</v>
+      </c>
+      <c r="D28" t="str">
+        <v>13598881894</v>
+      </c>
+      <c r="E28" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2017-03-04 14:39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B29" t="str">
+        <v>日产轩逸</v>
+      </c>
+      <c r="C29" t="str">
+        <v>6UM90</v>
+      </c>
+      <c r="D29" t="str">
+        <v>15560075556</v>
+      </c>
+      <c r="E29" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2017-03-04 11:23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B30" t="str">
+        <v>丰田雷凌</v>
+      </c>
+      <c r="C30" t="str">
+        <v>L86W8</v>
+      </c>
+      <c r="D30" t="str">
+        <v>15838250170</v>
+      </c>
+      <c r="E30" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2017-03-04 06:38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B31" t="str">
+        <v>MG32014手动精英版</v>
+      </c>
+      <c r="C31" t="str">
+        <v>豫AY1C97</v>
+      </c>
+      <c r="D31" t="str">
+        <v>13072626768</v>
+      </c>
+      <c r="E31" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2017-03-03 22:44</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B32" t="str">
+        <v>福克斯</v>
+      </c>
+      <c r="C32" t="str">
+        <v>豫A2RP35</v>
+      </c>
+      <c r="D32" t="str">
+        <v>13837325159</v>
+      </c>
+      <c r="E32" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2017-03-03 13:12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B33" t="str">
+        <v>宝骏730</v>
+      </c>
+      <c r="C33" t="str">
+        <v>豫AX6H00</v>
+      </c>
+      <c r="D33" t="str">
+        <v>15136100505</v>
+      </c>
+      <c r="E33" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2017-03-03 11:47</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B34" t="str">
+        <v>大众途观</v>
+      </c>
+      <c r="C34" t="str">
+        <v>豫a7ga65</v>
+      </c>
+      <c r="D34" t="str">
+        <v>18625519088</v>
+      </c>
+      <c r="E34" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2017-03-02 22:59</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B35" t="str">
+        <v>哈弗 H1</v>
+      </c>
+      <c r="C35" t="str">
+        <v>豫A 5B92M</v>
+      </c>
+      <c r="D35" t="str">
+        <v>18638179598</v>
+      </c>
+      <c r="E35" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2017-03-02 15:53</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>488元 | 保养【涡轮增压首选】</v>
+      </c>
+      <c r="B36" t="str">
+        <v>速腾1.4T</v>
+      </c>
+      <c r="C36" t="str">
+        <v>豫A799M5</v>
+      </c>
+      <c r="D36" t="str">
+        <v>18638223097</v>
+      </c>
+      <c r="E36" t="str">
+        <v>爱车梦工厂北区店</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2017-03-02 15:36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>3M全车窗膜</v>
+      </c>
+      <c r="B37" t="str">
+        <v>斯巴鲁xv</v>
+      </c>
+      <c r="C37" t="str">
+        <v>豫AJ0T63</v>
+      </c>
+      <c r="D37" t="str">
+        <v>15838208966</v>
+      </c>
+      <c r="E37" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2017-03-02 11:48</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>188元 | 保养</v>
+      </c>
+      <c r="B38" t="str">
+        <v>斯柯达晶锐</v>
+      </c>
+      <c r="C38" t="str">
+        <v>豫AN808B</v>
+      </c>
+      <c r="D38" t="str">
+        <v>15537100050</v>
+      </c>
+      <c r="E38" t="str">
+        <v>爱车梦工厂东区店</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2017-03-01 08:18</v>
       </c>
     </row>
   </sheetData>
